--- a/Data/Codebook.xlsx
+++ b/Data/Codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuxi ZENG\Dropbox\Third Year\OCP_Revise\Code_Readme\OCP_LIV_JRSSA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuxi ZENG\Dropbox\JRSSA_OCP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EF67F3-CA7A-4A56-ACCF-F5FF6DFB7E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E88CB9-6FD3-4D4A-8D34-314794C07333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BD8238-514C-4210-B9E0-5755008FC19E}"/>
   </bookViews>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Variable not used</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qa1y_best</t>
   </si>
   <si>
@@ -573,6 +569,10 @@
   </si>
   <si>
     <t>Code for ethncity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable not used</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,9 +634,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5E5FA-12A1-42EB-8382-7FB764587621}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1238,18 +1235,18 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1257,54 +1254,54 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
         <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1312,10 +1309,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -1323,153 +1320,153 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
         <v>114</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" t="s">
-        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -1477,21 +1474,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
         <v>119</v>
       </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
         <v>121</v>
-      </c>
-      <c r="B49" t="s">
-        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>
@@ -1510,10 +1507,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -1532,10 +1529,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -1543,10 +1540,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
         <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -1554,43 +1551,43 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
         <v>136</v>
       </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
         <v>140</v>
-      </c>
-      <c r="B58" t="s">
-        <v>141</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
@@ -1598,10 +1595,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
         <v>142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>143</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -1609,10 +1606,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -1620,10 +1617,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
-      </c>
-      <c r="B61" t="s">
-        <v>146</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -1631,10 +1628,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
         <v>147</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
